--- a/poker.xlsx
+++ b/poker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\งานเขียนโปรแกรม\Project\Poker-ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D19ED5-205B-402F-9313-BF15F1EA8A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C731DA-D632-4B70-BF7D-903A030968F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{432D9E6F-93EA-4432-81E9-48BC2CF51AD2}"/>
   </bookViews>
@@ -16,6 +16,8 @@
     <sheet name="part" sheetId="1" r:id="rId1"/>
     <sheet name="Rank" sheetId="3" r:id="rId2"/>
     <sheet name="dataset" sheetId="4" r:id="rId3"/>
+    <sheet name="df1" sheetId="5" r:id="rId4"/>
+    <sheet name="df2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="74">
   <si>
     <t>♣</t>
   </si>
@@ -284,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -380,11 +382,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,9 +421,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -410,6 +435,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,7 +975,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection sqref="A1:G11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -953,13 +988,13 @@
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="3" t="s">
         <v>58</v>
       </c>
@@ -1185,8 +1220,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="164" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1196,1863 +1231,5554 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="7" t="s">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>50</v>
+      </c>
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" t="s">
+        <v>46</v>
+      </c>
+      <c r="F73" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>51</v>
+      </c>
+      <c r="B80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6715A3D9-434C-44C8-A1C1-A62629E67304}">
+  <dimension ref="A1:H101"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="H4" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="I5" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="I6" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="I7" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="I8" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="F12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="I9" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="I10" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="I11" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="I12" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="I13" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="I14" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="I15" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="2"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F54" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F57" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F60" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F63" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F64" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F65" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F66" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F70" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F71" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F72" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F75" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F76" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F78" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F80" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F81" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="F81" s="3"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F83" s="3"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F85" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F86" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F87" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F88" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="F88" s="3"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F89" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="F89" s="3"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F90" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="F90" s="3"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F91" s="2"/>
+      <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="2"/>
+      <c r="F93" s="3"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F94" s="2"/>
+      <c r="F94" s="3"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F95" s="2"/>
+      <c r="F95" s="3"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F96" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F96" s="3"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F97" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F98" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F98" s="3"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F99" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="F99" s="3"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="F100" s="3"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF3BF73-E1A7-4F99-A9B2-FC405447542B}">
+  <dimension ref="A1:H101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="H4" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B101" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F101" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="F101" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/poker.xlsx
+++ b/poker.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\งานเขียนโปรแกรม\Project\Poker-ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C731DA-D632-4B70-BF7D-903A030968F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AC99BB-C22D-424C-904A-BACEDC5147D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{432D9E6F-93EA-4432-81E9-48BC2CF51AD2}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{432D9E6F-93EA-4432-81E9-48BC2CF51AD2}"/>
   </bookViews>
   <sheets>
     <sheet name="part" sheetId="1" r:id="rId1"/>
     <sheet name="Rank" sheetId="3" r:id="rId2"/>
     <sheet name="dataset" sheetId="4" r:id="rId3"/>
-    <sheet name="df1" sheetId="5" r:id="rId4"/>
-    <sheet name="df2" sheetId="6" r:id="rId5"/>
+    <sheet name="data rank" sheetId="7" r:id="rId4"/>
+    <sheet name="df1" sheetId="5" r:id="rId5"/>
+    <sheet name="df2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="76">
   <si>
     <t>♣</t>
   </si>
@@ -262,6 +263,12 @@
   </si>
   <si>
     <t>H5</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Encode_sum</t>
   </si>
 </sst>
 </file>
@@ -286,7 +293,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -408,11 +415,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -444,7 +477,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,7 +1020,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G1" sqref="G1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1218,19 +1263,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35E014C-A0EB-4017-8E85-87C730C59352}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="164" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>69</v>
       </c>
@@ -1243,1796 +1290,2049 @@
       <c r="D1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="G2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1">
+        <v>5.23</v>
+      </c>
+      <c r="G3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1">
+        <v>7.21</v>
+      </c>
+      <c r="G4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="G5" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="G6" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1">
+        <v>7.19</v>
+      </c>
+      <c r="G7" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1">
+        <v>5.23</v>
+      </c>
+      <c r="G8" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1">
+        <v>7.16</v>
+      </c>
+      <c r="G9" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1">
+        <v>5.17</v>
+      </c>
+      <c r="G10" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G11" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1">
+        <v>7.09</v>
+      </c>
+      <c r="G12" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="G13" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="G14" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1">
+        <v>7.16</v>
+      </c>
+      <c r="G15" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="G16" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1">
+        <v>5.33</v>
+      </c>
+      <c r="G17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="G18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1">
+        <v>7.16</v>
+      </c>
+      <c r="G19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1">
+        <v>5.24</v>
+      </c>
+      <c r="G20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="G21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1">
+        <v>7.24</v>
+      </c>
+      <c r="G22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1">
+        <v>5.16</v>
+      </c>
+      <c r="G23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="G24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1">
+        <v>7.07</v>
+      </c>
+      <c r="G25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="G26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="G27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="G28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="G29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1">
+        <v>5.23</v>
+      </c>
+      <c r="G30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="G31" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1">
+        <v>5.29</v>
+      </c>
+      <c r="G32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="G33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1">
+        <v>7.15</v>
+      </c>
+      <c r="G34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1">
+        <v>5.17</v>
+      </c>
+      <c r="G35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1">
+        <v>5.23</v>
+      </c>
+      <c r="G36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="G37" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A38" t="s">
+    <row r="38" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="G38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1">
+        <v>7.16</v>
+      </c>
+      <c r="G39" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="G40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="G41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1">
+        <v>5.17</v>
+      </c>
+      <c r="G42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1">
+        <v>7.08</v>
+      </c>
+      <c r="G43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1">
+        <v>11.08</v>
+      </c>
+      <c r="G44" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1">
+        <v>5.16</v>
+      </c>
+      <c r="G45" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="G46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="G47" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1">
+        <v>5.08</v>
+      </c>
+      <c r="G48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1">
+        <v>7.19</v>
+      </c>
+      <c r="G49" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="G50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1">
+        <v>7.16</v>
+      </c>
+      <c r="G51" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1">
+        <v>7.33</v>
+      </c>
+      <c r="G52" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1">
+        <v>5.32</v>
+      </c>
+      <c r="G53" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="G54" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="G55" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="G56" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="G57" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="G58" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1">
+        <v>5.37</v>
+      </c>
+      <c r="G59" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1">
+        <v>7.24</v>
+      </c>
+      <c r="G60" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="G61" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="G62" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1">
+        <v>5.24</v>
+      </c>
+      <c r="G63" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="G64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1">
+        <v>9.19</v>
+      </c>
+      <c r="G65" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="G66" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="G67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="G68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="G69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="G70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="G71" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="1">
+        <v>7.32</v>
+      </c>
+      <c r="G72" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="1">
+        <v>11.18</v>
+      </c>
+      <c r="G73" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="G74" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1">
+        <v>5.17</v>
+      </c>
+      <c r="G75" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="1">
+        <v>5.23</v>
+      </c>
+      <c r="G76" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="1">
+        <v>11.16</v>
+      </c>
+      <c r="G77" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="G78" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="1">
+        <v>7.16</v>
+      </c>
+      <c r="G79" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="1">
+        <v>7.25</v>
+      </c>
+      <c r="G80" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="G81" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="G82" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="3"/>
+    <row r="83" spans="1:7">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="15"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="15"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="15"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="15"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="15"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="15"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="15"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="15"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="15"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="15"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="17"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="15"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="17"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="15"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="17"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="15"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="15"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="17"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="15"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="17"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="15"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="15"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="15"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="17"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3040,11 +3340,118 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B37A6A-7284-4BE2-BB7F-0824690B2D95}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6715A3D9-434C-44C8-A1C1-A62629E67304}">
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4912,7 +5319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF3BF73-E1A7-4F99-A9B2-FC405447542B}">
   <dimension ref="A1:H101"/>
   <sheetViews>
